--- a/doc/总线矩阵.xlsx
+++ b/doc/总线矩阵.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20388"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\IntelliJ IDEA 2019.3.1\workspace\data_warehouse\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706D624-E274-46FB-A281-31A2D9C1CA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主题域总线矩阵" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>主题域</t>
   </si>
@@ -130,18 +137,128 @@
   <si>
     <t>根据条件分析企业</t>
   </si>
+  <si>
+    <t>主题域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业画像域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营风险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>司法风险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识产权</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻舆情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取基本信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经营信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取经营风险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取司法风险</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取知识产权</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取新闻舆情</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业图谱域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>股权关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉诉关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件关系</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取股权数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取集团数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取涉诉数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取疑似数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取事件数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业搜索域</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业查询</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,150 +297,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="22"/>
       <color theme="1"/>
@@ -339,202 +312,39 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -551,255 +361,13 @@
         <color auto="1"/>
       </diagonal>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,62 +386,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1131,26 +667,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="26" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="19.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:3">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1177,7 +713,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -1191,7 +727,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1205,7 +741,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -1219,7 +755,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1233,7 +769,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1247,7 +783,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1263,7 +799,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1277,7 +813,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
@@ -1291,7 +827,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1305,7 +841,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" customHeight="1" spans="1:10">
+    <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -1319,7 +855,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" customHeight="1" spans="1:10">
+    <row r="13" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1333,7 +869,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" customHeight="1" spans="1:10">
+    <row r="14" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1349,7 +885,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="1:10">
+    <row r="15" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1361,7 +897,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" customHeight="1" spans="1:10">
+    <row r="16" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1373,7 +909,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" customHeight="1" spans="1:10">
+    <row r="17" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1385,7 +921,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1397,7 +933,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" customHeight="1" spans="1:10">
+    <row r="19" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1409,7 +945,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" customHeight="1" spans="1:10">
+    <row r="20" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1421,7 +957,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" customHeight="1" spans="1:10">
+    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1433,7 +969,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" customHeight="1" spans="1:10">
+    <row r="22" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1445,7 +981,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" customHeight="1" spans="1:10">
+    <row r="23" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1457,7 +993,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" customHeight="1" spans="1:10">
+    <row r="24" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1469,7 +1005,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" customHeight="1" spans="1:10">
+    <row r="25" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1481,7 +1017,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="1:10">
+    <row r="26" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1493,7 +1029,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="1:10">
+    <row r="27" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1505,7 +1041,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" customHeight="1" spans="1:10">
+    <row r="28" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1517,7 +1053,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" customHeight="1" spans="1:10">
+    <row r="29" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1529,7 +1065,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" customHeight="1" spans="1:10">
+    <row r="30" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1541,7 +1077,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" customHeight="1" spans="1:10">
+    <row r="31" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1558,53 +1094,214 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="26" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:1">
+    <row r="3" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
+    <row r="4" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:1">
+    <row r="5" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2309C33-C5A2-45EF-A683-5A15DA7CFD79}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/总线矩阵.xlsx
+++ b/doc/总线矩阵.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\IntelliJ IDEA 2019.3.1\workspace\data_warehouse\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9706D624-E274-46FB-A281-31A2D9C1CA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22485" windowHeight="9345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主题域总线矩阵" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>主题域</t>
   </si>
@@ -138,127 +132,77 @@
     <t>根据条件分析企业</t>
   </si>
   <si>
-    <t>主题域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业画像域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>经营风险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>司法风险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识产权</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻舆情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取基本信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>获取工商信息</t>
+  </si>
+  <si>
+    <t>获取联系方式</t>
+  </si>
+  <si>
+    <t>获取股东信息</t>
+  </si>
+  <si>
+    <t>获取主要成员</t>
+  </si>
+  <si>
+    <t>获取工商变更</t>
+  </si>
+  <si>
+    <t>获取企业年报</t>
+  </si>
+  <si>
+    <t>获取分支机构</t>
+  </si>
+  <si>
+    <t>获取参股控股</t>
   </si>
   <si>
     <t>获取经营信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取经营风险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取司法风险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取知识产权</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取新闻舆情</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业图谱域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>股权关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取股权数据</t>
+  </si>
+  <si>
+    <t>获取集团数据</t>
   </si>
   <si>
     <t>涉诉关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>疑似关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件关系</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取股权数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取集团数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取涉诉数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取疑似数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>获取事件数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业搜索域</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>企业查询</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级搜索</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +212,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,6 +233,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -297,6 +255,150 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="22"/>
       <color theme="1"/>
@@ -312,39 +414,202 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -361,55 +626,344 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -667,38 +1221,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -713,8 +1267,8 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,8 +1281,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -741,8 +1295,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -755,8 +1309,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -769,8 +1323,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
@@ -783,8 +1337,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" customHeight="1" spans="1:10">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -799,8 +1353,8 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+    <row r="9" customHeight="1" spans="1:10">
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -813,8 +1367,8 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+    <row r="10" customHeight="1" spans="1:10">
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
@@ -827,8 +1381,8 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+    <row r="11" customHeight="1" spans="1:10">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -841,8 +1395,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+    <row r="12" customHeight="1" spans="1:10">
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -855,8 +1409,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+    <row r="13" customHeight="1" spans="1:10">
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -869,7 +1423,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -885,7 +1439,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -897,7 +1451,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -909,7 +1463,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -921,7 +1475,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -933,7 +1487,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -945,7 +1499,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -957,7 +1511,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -969,7 +1523,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -981,7 +1535,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -993,7 +1547,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1005,7 +1559,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1017,7 +1571,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1029,7 +1583,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1041,7 +1595,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1053,7 +1607,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1065,7 +1619,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" customHeight="1" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1077,7 +1631,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" customHeight="1" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1094,214 +1648,271 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" customHeight="1" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2309C33-C5A2-45EF-A683-5A15DA7CFD79}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.1" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="3" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="4" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="5" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9" t="s">
+    </row>
+    <row r="6" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="13" customFormat="1" ht="36" customHeight="1" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="9" t="s">
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="9" t="s">
+    <row r="15" customHeight="1" spans="1:3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="16" customHeight="1" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="17" customHeight="1" spans="1:3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    <row r="18" customHeight="1" spans="1:3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="1:3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B2:B10"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>